--- a/fit.xlsx
+++ b/fit.xlsx
@@ -460,13 +460,13 @@
         <v>-500</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9762109518051147</v>
+        <v>0.9747240543365479</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9167372584342957</v>
+        <v>0.9132869243621826</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8448696136474609</v>
+        <v>0.8395013213157654</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>-490</v>
       </c>
       <c r="B3" t="n">
-        <v>0.973740816116333</v>
+        <v>0.972126305103302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9111490249633789</v>
+        <v>0.9074651002883911</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8366329669952393</v>
+        <v>0.8312178254127502</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>-480</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9716536402702332</v>
+        <v>0.9703333973884583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9047424793243408</v>
+        <v>0.900581955909729</v>
       </c>
       <c r="D4" t="n">
-        <v>0.828620433807373</v>
+        <v>0.8231431841850281</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>-470</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9701793193817139</v>
+        <v>0.9687336087226868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8997984528541565</v>
+        <v>0.895922839641571</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8200670480728149</v>
+        <v>0.8138958811759949</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>-460</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9674111008644104</v>
+        <v>0.9659307599067688</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8934395313262939</v>
+        <v>0.8893574476242065</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8101178407669067</v>
+        <v>0.8044695854187012</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>-450</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9644299745559692</v>
+        <v>0.9624776244163513</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8857948184013367</v>
+        <v>0.8815001249313354</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8001834154129028</v>
+        <v>0.79447340965271</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>-440</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9605634212493896</v>
+        <v>0.9588732719421387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8767299652099609</v>
+        <v>0.8720270395278931</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7897700667381287</v>
+        <v>0.7839993834495544</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>-430</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9573355317115784</v>
+        <v>0.956695020198822</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8674811720848083</v>
+        <v>0.8630464673042297</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7774335145950317</v>
+        <v>0.7715958952903748</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>-420</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9524397253990173</v>
+        <v>0.9517341256141663</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8571440577507019</v>
+        <v>0.8524746298789978</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7665145397186279</v>
+        <v>0.7609444260597229</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>-410</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9490936398506165</v>
+        <v>0.946774959564209</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8470236659049988</v>
+        <v>0.8420934081077576</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7536491751670837</v>
+        <v>0.7481805086135864</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>-400</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9434724450111389</v>
+        <v>0.9414601922035217</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8357908725738525</v>
+        <v>0.8310837745666504</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7404778599739075</v>
+        <v>0.7351481318473816</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>-390</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9382399320602417</v>
+        <v>0.9360863566398621</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8225213885307312</v>
+        <v>0.8176297545433044</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7276831269264221</v>
+        <v>0.7225749492645264</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>-380</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9307360053062439</v>
+        <v>0.928560733795166</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8086875677108765</v>
+        <v>0.8041366934776306</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7133445143699646</v>
+        <v>0.7081759572029114</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>-370</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9221868515014648</v>
+        <v>0.9195608496665955</v>
       </c>
       <c r="C15" t="n">
-        <v>0.793357253074646</v>
+        <v>0.7889463901519775</v>
       </c>
       <c r="D15" t="n">
-        <v>0.698666512966156</v>
+        <v>0.6942210793495178</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>-360</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9121033549308777</v>
+        <v>0.909970223903656</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7763768434524536</v>
+        <v>0.7725396156311035</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6836522221565247</v>
+        <v>0.6796032190322876</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>-350</v>
       </c>
       <c r="B17" t="n">
-        <v>0.900451123714447</v>
+        <v>0.898220956325531</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7588455677032471</v>
+        <v>0.755215048789978</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6699904203414917</v>
+        <v>0.6662055253982544</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>-340</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8873013854026794</v>
+        <v>0.8858206272125244</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7413025498390198</v>
+        <v>0.7381715178489685</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6551907658576965</v>
+        <v>0.6519243717193604</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>-330</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8720502853393555</v>
+        <v>0.8712164163589478</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7222065329551697</v>
+        <v>0.720029890537262</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6410043835639954</v>
+        <v>0.6385289430618286</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>-320</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8533493876457214</v>
+        <v>0.8533772826194763</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7037314772605896</v>
+        <v>0.7030211091041565</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6272491812705994</v>
+        <v>0.625286340713501</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>-310</v>
       </c>
       <c r="B21" t="n">
-        <v>0.833570659160614</v>
+        <v>0.8350722789764404</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6855773329734802</v>
+        <v>0.6854546070098877</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6146554946899414</v>
+        <v>0.6132331490516663</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>-300</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8127205371856689</v>
+        <v>0.8159400820732117</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6681975722312927</v>
+        <v>0.6691440343856812</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6031039953231812</v>
+        <v>0.6023253202438354</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>-290</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7909510135650635</v>
+        <v>0.7968763113021851</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6524934768676758</v>
+        <v>0.654695451259613</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5929215550422668</v>
+        <v>0.5928673148155212</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>-280</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7715616226196289</v>
+        <v>0.7791271805763245</v>
       </c>
       <c r="C24" t="n">
-        <v>0.639403760433197</v>
+        <v>0.6423724293708801</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5848193764686584</v>
+        <v>0.584868848323822</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>-270</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7563122510910034</v>
+        <v>0.7661588191986084</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6299498677253723</v>
+        <v>0.6336678862571716</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5779775977134705</v>
+        <v>0.5783113837242126</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>-260</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7480089664459229</v>
+        <v>0.7591975927352905</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6244024038314819</v>
+        <v>0.628491997718811</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5733522176742554</v>
+        <v>0.5738781690597534</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>-250</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7472506165504456</v>
+        <v>0.7583613991737366</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6226963400840759</v>
+        <v>0.6271578669548035</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5703612565994263</v>
+        <v>0.5709232687950134</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>-240</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7551699876785278</v>
+        <v>0.765185534954071</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6252545714378357</v>
+        <v>0.6289504170417786</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5693169832229614</v>
+        <v>0.5697510242462158</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>-230</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7687708139419556</v>
+        <v>0.7771917581558228</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6315451264381409</v>
+        <v>0.6345533728599548</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5696677565574646</v>
+        <v>0.5698959231376648</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>-220</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7871893048286438</v>
+        <v>0.7929450273513794</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6409302949905396</v>
+        <v>0.643200695514679</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5713004469871521</v>
+        <v>0.5715245008468628</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>-210</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8073453307151794</v>
+        <v>0.8109138011932373</v>
       </c>
       <c r="C31" t="n">
-        <v>0.651921808719635</v>
+        <v>0.653270959854126</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5742673873901367</v>
+        <v>0.5738551020622253</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>-200</v>
       </c>
       <c r="B32" t="n">
-        <v>0.826399564743042</v>
+        <v>0.8280587196350098</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6644037365913391</v>
+        <v>0.6647653579711914</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5773102045059204</v>
+        <v>0.5765755772590637</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>-190</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8441517353057861</v>
+        <v>0.8444349765777588</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6769579648971558</v>
+        <v>0.6762335300445557</v>
       </c>
       <c r="D33" t="n">
-        <v>0.580535352230072</v>
+        <v>0.5793594121932983</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>-180</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8589016795158386</v>
+        <v>0.8582870960235596</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6891036033630371</v>
+        <v>0.6877842545509338</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5829417705535889</v>
+        <v>0.5816819071769714</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>-170</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8721596598625183</v>
+        <v>0.8709900975227356</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6998331546783447</v>
+        <v>0.6980370879173279</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5847581624984741</v>
+        <v>0.5829355716705322</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +936,13 @@
         <v>-160</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8821197152137756</v>
+        <v>0.8805436491966248</v>
       </c>
       <c r="C36" t="n">
-        <v>0.708606481552124</v>
+        <v>0.7063916921615601</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5843778252601624</v>
+        <v>0.5824217200279236</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +950,13 @@
         <v>-150</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8899387121200562</v>
+        <v>0.8883852362632751</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7149048447608948</v>
+        <v>0.7124163508415222</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5820203423500061</v>
+        <v>0.5799561738967896</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +964,13 @@
         <v>-140</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8950957059860229</v>
+        <v>0.8934673666954041</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7179182767868042</v>
+        <v>0.7155028581619263</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5765595436096191</v>
+        <v>0.5744080543518066</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +978,13 @@
         <v>-130</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8981363773345947</v>
+        <v>0.8966336846351624</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7171190977096558</v>
+        <v>0.7153806090354919</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5670338869094849</v>
+        <v>0.5652546286582947</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>-120</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8990691900253296</v>
+        <v>0.8976936340332031</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7123603820800781</v>
+        <v>0.710452675819397</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5533801317214966</v>
+        <v>0.5521068572998047</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>-110</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8969758152961731</v>
+        <v>0.8959212303161621</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7022527456283569</v>
+        <v>0.7008066773414612</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5341526865959167</v>
+        <v>0.5330206155776978</v>
       </c>
     </row>
     <row r="42">
@@ -1020,13 +1020,13 @@
         <v>-100</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8916784524917603</v>
+        <v>0.8910931348800659</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6856270432472229</v>
+        <v>0.6847801208496094</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5087761282920837</v>
+        <v>0.5083232522010803</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1034,13 @@
         <v>-90</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8821338415145874</v>
+        <v>0.882616400718689</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6613694429397583</v>
+        <v>0.6611953377723694</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4757500886917114</v>
+        <v>0.4759159088134766</v>
       </c>
     </row>
     <row r="44">
@@ -1048,13 +1048,13 @@
         <v>-80</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8679461479187012</v>
+        <v>0.8681608438491821</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6271380186080933</v>
+        <v>0.6278320550918579</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4346441924571991</v>
+        <v>0.4354395866394043</v>
       </c>
     </row>
     <row r="45">
@@ -1062,13 +1062,13 @@
         <v>-70</v>
       </c>
       <c r="B45" t="n">
-        <v>0.845700740814209</v>
+        <v>0.8465860486030579</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5811557173728943</v>
+        <v>0.5827194452285767</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3845629096031189</v>
+        <v>0.3859251439571381</v>
       </c>
     </row>
     <row r="46">
@@ -1076,13 +1076,13 @@
         <v>-60</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8115155100822449</v>
+        <v>0.8133605718612671</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5198829174041748</v>
+        <v>0.5223247408866882</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3255569040775299</v>
+        <v>0.3273614346981049</v>
       </c>
     </row>
     <row r="47">
@@ -1090,13 +1090,13 @@
         <v>-50</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7599621415138245</v>
+        <v>0.7624593377113342</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4410015344619751</v>
+        <v>0.444187194108963</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2587510347366333</v>
+        <v>0.2607514560222626</v>
       </c>
     </row>
     <row r="48">
@@ -1104,13 +1104,13 @@
         <v>-40</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6785999536514282</v>
+        <v>0.6823636889457703</v>
       </c>
       <c r="C48" t="n">
-        <v>0.344034343957901</v>
+        <v>0.347449004650116</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1874061673879623</v>
+        <v>0.1893158853054047</v>
       </c>
     </row>
     <row r="49">
@@ -1118,13 +1118,13 @@
         <v>-30</v>
       </c>
       <c r="B49" t="n">
-        <v>0.550279438495636</v>
+        <v>0.5553364157676697</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2327025681734085</v>
+        <v>0.2357561886310577</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1172689273953438</v>
+        <v>0.1187182888388634</v>
       </c>
     </row>
     <row r="50">
@@ -1132,13 +1132,13 @@
         <v>-20</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3570418953895569</v>
+        <v>0.3619681000709534</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1207291707396507</v>
+        <v>0.1227049976587296</v>
       </c>
       <c r="D50" t="n">
-        <v>0.05661462992429733</v>
+        <v>0.05742080882191658</v>
       </c>
     </row>
     <row r="51">
@@ -1146,13 +1146,13 @@
         <v>-10</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1233176365494728</v>
+        <v>0.1257161945104599</v>
       </c>
       <c r="C51" t="n">
-        <v>0.03356578201055527</v>
+        <v>0.03418827429413795</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01492061465978622</v>
+        <v>0.01514925435185432</v>
       </c>
     </row>
     <row r="52">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0003535902069415897</v>
+        <v>0.0003614623274188489</v>
       </c>
       <c r="C52" t="n">
-        <v>8.687096851645038e-05</v>
+        <v>8.841066301101819e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>3.760751496884041e-05</v>
+        <v>3.80512974516023e-05</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>10</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1237994283437729</v>
+        <v>0.1262476593255997</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0338754877448082</v>
+        <v>0.03454535827040672</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01515814010053873</v>
+        <v>0.01542534213513136</v>
       </c>
     </row>
     <row r="54">
@@ -1188,13 +1188,13 @@
         <v>20</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3591572642326355</v>
+        <v>0.3642261326313019</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1221068352460861</v>
+        <v>0.1242468655109406</v>
       </c>
       <c r="D54" t="n">
-        <v>0.05754289031028748</v>
+        <v>0.05848335474729538</v>
       </c>
     </row>
     <row r="55">
@@ -1202,13 +1202,13 @@
         <v>30</v>
       </c>
       <c r="B55" t="n">
-        <v>0.554965615272522</v>
+        <v>0.5600944757461548</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2366714626550674</v>
+        <v>0.2401352375745773</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1199177876114845</v>
+        <v>0.1216971650719643</v>
       </c>
     </row>
     <row r="56">
@@ -1216,13 +1216,13 @@
         <v>40</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6862780451774597</v>
+        <v>0.690255880355835</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3525896668434143</v>
+        <v>0.3567642569541931</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1933922618627548</v>
+        <v>0.1959164440631866</v>
       </c>
     </row>
     <row r="57">
@@ -1230,13 +1230,13 @@
         <v>50</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7708199620246887</v>
+        <v>0.774110734462738</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4563351571559906</v>
+        <v>0.460559606552124</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2700793445110321</v>
+        <v>0.2730711400508881</v>
       </c>
     </row>
     <row r="58">
@@ -1244,13 +1244,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8262344002723694</v>
+        <v>0.8287010192871094</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5434442162513733</v>
+        <v>0.5472990870475769</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3446542918682098</v>
+        <v>0.3479076027870178</v>
       </c>
     </row>
     <row r="59">
@@ -1258,13 +1258,13 @@
         <v>70</v>
       </c>
       <c r="B59" t="n">
-        <v>0.863894522190094</v>
+        <v>0.8657684922218323</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6143213510513306</v>
+        <v>0.6176393628120422</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4136269390583038</v>
+        <v>0.416802316904068</v>
       </c>
     </row>
     <row r="60">
@@ -1272,13 +1272,13 @@
         <v>80</v>
       </c>
       <c r="B60" t="n">
-        <v>0.890542209148407</v>
+        <v>0.8918865323066711</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6718454360961914</v>
+        <v>0.6748785376548767</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4754160344600677</v>
+        <v>0.4784276783466339</v>
       </c>
     </row>
     <row r="61">
@@ -1286,13 +1286,13 @@
         <v>90</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9101758003234863</v>
+        <v>0.9112331867218018</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7175925374031067</v>
+        <v>0.7200119495391846</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5304702520370483</v>
+        <v>0.5332993865013123</v>
       </c>
     </row>
     <row r="62">
@@ -1300,13 +1300,13 @@
         <v>100</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9249153733253479</v>
+        <v>0.9257416129112244</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7556695938110352</v>
+        <v>0.7575892806053162</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5781412124633789</v>
+        <v>0.5805728435516357</v>
       </c>
     </row>
     <row r="63">
@@ -1314,13 +1314,13 @@
         <v>110</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9358059763908386</v>
+        <v>0.9364180564880371</v>
       </c>
       <c r="C63" t="n">
-        <v>0.786149263381958</v>
+        <v>0.787800133228302</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6197876334190369</v>
+        <v>0.6218904852867126</v>
       </c>
     </row>
     <row r="64">
@@ -1328,13 +1328,13 @@
         <v>120</v>
       </c>
       <c r="B64" t="n">
-        <v>0.94468754529953</v>
+        <v>0.9450112581253052</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8110023736953735</v>
+        <v>0.8120489716529846</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6562343239784241</v>
+        <v>0.6579400300979614</v>
       </c>
     </row>
     <row r="65">
@@ -1342,13 +1342,13 @@
         <v>130</v>
       </c>
       <c r="B65" t="n">
-        <v>0.951806902885437</v>
+        <v>0.952181339263916</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8317161798477173</v>
+        <v>0.8326966762542725</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6879509687423706</v>
+        <v>0.6894069314002991</v>
       </c>
     </row>
     <row r="66">
@@ -1356,13 +1356,13 @@
         <v>140</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9568766951560974</v>
+        <v>0.9571389555931091</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8492915630340576</v>
+        <v>0.8499348759651184</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7152374386787415</v>
+        <v>0.7164402604103088</v>
       </c>
     </row>
     <row r="67">
@@ -1370,13 +1370,13 @@
         <v>150</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9611545205116272</v>
+        <v>0.9609849452972412</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8640360832214355</v>
+        <v>0.864531934261322</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7388657927513123</v>
+        <v>0.7407567501068115</v>
       </c>
     </row>
     <row r="68">
@@ -1384,13 +1384,13 @@
         <v>160</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9650513529777527</v>
+        <v>0.9650708436965942</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8769488334655762</v>
+        <v>0.8772321343421936</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7596147060394287</v>
+        <v>0.7601947784423828</v>
       </c>
     </row>
     <row r="69">
@@ -1398,13 +1398,13 @@
         <v>170</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9683524370193481</v>
+        <v>0.9684275984764099</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8874042630195618</v>
+        <v>0.887800931930542</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7784733176231384</v>
+        <v>0.77899169921875</v>
       </c>
     </row>
     <row r="70">
@@ -1412,13 +1412,13 @@
         <v>180</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9714542627334595</v>
+        <v>0.9711253643035889</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8972221612930298</v>
+        <v>0.8973310589790344</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7952763438224792</v>
+        <v>0.7955712080001831</v>
       </c>
     </row>
     <row r="71">
@@ -1426,13 +1426,13 @@
         <v>190</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9737964272499084</v>
+        <v>0.9738901257514954</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9052106738090515</v>
+        <v>0.9052113890647888</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8104456067085266</v>
+        <v>0.810350775718689</v>
       </c>
     </row>
     <row r="72">
@@ -1440,13 +1440,13 @@
         <v>200</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9765030145645142</v>
+        <v>0.9764814376831055</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9136462807655334</v>
+        <v>0.9135467410087585</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8237171173095703</v>
+        <v>0.823367178440094</v>
       </c>
     </row>
     <row r="73">
@@ -1454,13 +1454,13 @@
         <v>210</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9788106679916382</v>
+        <v>0.9787297248840332</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9184489250183105</v>
+        <v>0.9197406768798828</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8357498645782471</v>
+        <v>0.8355165123939514</v>
       </c>
     </row>
     <row r="74">
@@ -1468,13 +1468,13 @@
         <v>220</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9801632761955261</v>
+        <v>0.9800789952278137</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9234555959701538</v>
+        <v>0.9233011603355408</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8444387912750244</v>
+        <v>0.8453685641288757</v>
       </c>
     </row>
     <row r="75">
@@ -1482,13 +1482,13 @@
         <v>230</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9818776845932007</v>
+        <v>0.9817672371864319</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9292680025100708</v>
+        <v>0.9290165305137634</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8543208837509155</v>
+        <v>0.8533908724784851</v>
       </c>
     </row>
     <row r="76">
@@ -1496,13 +1496,13 @@
         <v>240</v>
       </c>
       <c r="B76" t="n">
-        <v>0.982684314250946</v>
+        <v>0.9825650453567505</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9333046674728394</v>
+        <v>0.932652473449707</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8637465238571167</v>
+        <v>0.8628688454627991</v>
       </c>
     </row>
     <row r="77">
@@ -1510,13 +1510,13 @@
         <v>250</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9836796522140503</v>
+        <v>0.9836341142654419</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9378834962844849</v>
+        <v>0.9371141791343689</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8710072636604309</v>
+        <v>0.8704859614372253</v>
       </c>
     </row>
     <row r="78">
@@ -1524,13 +1524,13 @@
         <v>260</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9843853712081909</v>
+        <v>0.9843122959136963</v>
       </c>
       <c r="C78" t="n">
-        <v>0.941569983959198</v>
+        <v>0.9409263134002686</v>
       </c>
       <c r="D78" t="n">
-        <v>0.878978967666626</v>
+        <v>0.8783923387527466</v>
       </c>
     </row>
     <row r="79">
@@ -1538,13 +1538,13 @@
         <v>270</v>
       </c>
       <c r="B79" t="n">
-        <v>0.985356330871582</v>
+        <v>0.9853243827819824</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9446560740470886</v>
+        <v>0.9443295001983643</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8863549828529358</v>
+        <v>0.885750412940979</v>
       </c>
     </row>
     <row r="80">
@@ -1552,13 +1552,13 @@
         <v>280</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9868202805519104</v>
+        <v>0.9867562055587769</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9481556415557861</v>
+        <v>0.9477726817131042</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8908164501190186</v>
+        <v>0.8901128172874451</v>
       </c>
     </row>
     <row r="81">
@@ -1566,13 +1566,13 @@
         <v>290</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9870326519012451</v>
+        <v>0.9869155287742615</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9509016275405884</v>
+        <v>0.9506571292877197</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8963928818702698</v>
+        <v>0.8957483768463135</v>
       </c>
     </row>
     <row r="82">
@@ -1580,13 +1580,13 @@
         <v>300</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9882926940917969</v>
+        <v>0.9881889820098877</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9538791179656982</v>
+        <v>0.9534574151039124</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9016692042350769</v>
+        <v>0.90078204870224</v>
       </c>
     </row>
     <row r="83">
@@ -1594,13 +1594,13 @@
         <v>310</v>
       </c>
       <c r="B83" t="n">
-        <v>0.989186704158783</v>
+        <v>0.9890370965003967</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9566069841384888</v>
+        <v>0.955611526966095</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9075775742530823</v>
+        <v>0.9067913889884949</v>
       </c>
     </row>
     <row r="84">
@@ -1608,13 +1608,13 @@
         <v>320</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9889756441116333</v>
+        <v>0.9889113903045654</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9584901332855225</v>
+        <v>0.9576396346092224</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9104251861572266</v>
+        <v>0.9095959663391113</v>
       </c>
     </row>
     <row r="85">
@@ -1622,13 +1622,13 @@
         <v>330</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9907358288764954</v>
+        <v>0.9906294345855713</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9594364762306213</v>
+        <v>0.9586460590362549</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9152191281318665</v>
+        <v>0.9144684076309204</v>
       </c>
     </row>
     <row r="86">
@@ -1636,13 +1636,13 @@
         <v>340</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9908118844032288</v>
+        <v>0.9906978607177734</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9619241952896118</v>
+        <v>0.9609286785125732</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9190832376480103</v>
+        <v>0.9179372787475586</v>
       </c>
     </row>
     <row r="87">
@@ -1650,13 +1650,13 @@
         <v>350</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9908455014228821</v>
+        <v>0.9903502464294434</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9627069234848022</v>
+        <v>0.9619028568267822</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9231847524642944</v>
+        <v>0.9222739338874817</v>
       </c>
     </row>
     <row r="88">
@@ -1664,13 +1664,13 @@
         <v>360</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9913336634635925</v>
+        <v>0.9900659322738647</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9667632579803467</v>
+        <v>0.9658779501914978</v>
       </c>
       <c r="D88" t="n">
-        <v>0.92661452293396</v>
+        <v>0.9253556728363037</v>
       </c>
     </row>
     <row r="89">
@@ -1678,13 +1678,13 @@
         <v>370</v>
       </c>
       <c r="B89" t="n">
-        <v>0.991866409778595</v>
+        <v>0.9922314882278442</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9672163724899292</v>
+        <v>0.9671822786331177</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9284660816192627</v>
+        <v>0.9273365139961243</v>
       </c>
     </row>
     <row r="90">
@@ -1692,13 +1692,13 @@
         <v>380</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9924072623252869</v>
+        <v>0.9918309450149536</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9692001342773438</v>
+        <v>0.9683647155761719</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9324462413787842</v>
+        <v>0.9312250018119812</v>
       </c>
     </row>
     <row r="91">
@@ -1706,13 +1706,13 @@
         <v>390</v>
       </c>
       <c r="B91" t="n">
-        <v>0.992466151714325</v>
+        <v>0.991975724697113</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9705995917320251</v>
+        <v>0.9697998762130737</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9358229041099548</v>
+        <v>0.9346389770507812</v>
       </c>
     </row>
     <row r="92">
@@ -1720,13 +1720,13 @@
         <v>400</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9924482703208923</v>
+        <v>0.9928264617919922</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9731091856956482</v>
+        <v>0.972987949848175</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9363999366760254</v>
+        <v>0.9352596402168274</v>
       </c>
     </row>
     <row r="93">
@@ -1734,13 +1734,13 @@
         <v>410</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9934108853340149</v>
+        <v>0.9928874969482422</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9734086394309998</v>
+        <v>0.9725924134254456</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9397438764572144</v>
+        <v>0.938541054725647</v>
       </c>
     </row>
     <row r="94">
@@ -1748,13 +1748,13 @@
         <v>420</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9934229850769043</v>
+        <v>0.9928720593452454</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9734068512916565</v>
+        <v>0.9732733964920044</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9411295652389526</v>
+        <v>0.9399926066398621</v>
       </c>
     </row>
     <row r="95">
@@ -1762,13 +1762,13 @@
         <v>430</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9950208067893982</v>
+        <v>0.9952350854873657</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9751953482627869</v>
+        <v>0.9744952917098999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.945148766040802</v>
+        <v>0.9446368813514709</v>
       </c>
     </row>
     <row r="96">
@@ -1776,13 +1776,13 @@
         <v>440</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9936401844024658</v>
+        <v>0.9930447936058044</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9754805564880371</v>
+        <v>0.9746922254562378</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9466295838356018</v>
+        <v>0.9461812376976013</v>
       </c>
     </row>
     <row r="97">
@@ -1790,13 +1790,13 @@
         <v>450</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9932685494422913</v>
+        <v>0.9927619695663452</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9770147204399109</v>
+        <v>0.9761719107627869</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9480743408203125</v>
+        <v>0.9476896524429321</v>
       </c>
     </row>
     <row r="98">
@@ -1804,13 +1804,13 @@
         <v>460</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9924526214599609</v>
+        <v>0.9927628040313721</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9792468547821045</v>
+        <v>0.9783880710601807</v>
       </c>
       <c r="D98" t="n">
-        <v>0.950475811958313</v>
+        <v>0.9492712616920471</v>
       </c>
     </row>
     <row r="99">
@@ -1818,13 +1818,13 @@
         <v>470</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9930041432380676</v>
+        <v>0.9923719167709351</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9744442701339722</v>
+        <v>0.9770088195800781</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9511047005653381</v>
+        <v>0.9500011205673218</v>
       </c>
     </row>
     <row r="100">
@@ -1832,13 +1832,13 @@
         <v>480</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9936999678611755</v>
+        <v>0.9940186142921448</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9758870601654053</v>
+        <v>0.9782020449638367</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9533481001853943</v>
+        <v>0.9521207213401794</v>
       </c>
     </row>
     <row r="101">
@@ -1846,13 +1846,13 @@
         <v>490</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9943522810935974</v>
+        <v>0.9938852190971375</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9759579300880432</v>
+        <v>0.9784892797470093</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9547029137611389</v>
+        <v>0.9542755484580994</v>
       </c>
     </row>
   </sheetData>
